--- a/resultados/tabelas_final/resultado_MP_MMQ.xlsx
+++ b/resultados/tabelas_final/resultado_MP_MMQ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,11 +477,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bcsstk03</t>
+          <t>1138_bus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,16 +490,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>199732738576.2932</v>
+        <v>30115.82629984464</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002558231353759766</v>
+        <v>0.0170900821685791</v>
       </c>
       <c r="G2" t="n">
-        <v>112</v>
+        <v>1138</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -514,11 +514,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bcsstk26</t>
+          <t>685_bus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>158268836382.195</v>
+        <v>26186.48629082991</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1257402896881104</v>
+        <v>0.001264095306396484</v>
       </c>
       <c r="G3" t="n">
-        <v>1922</v>
+        <v>685</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -551,11 +551,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bcsstm20</t>
+          <t>494_bus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,16 +564,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>47756316.74668948</v>
+        <v>2220.967903929713</v>
       </c>
       <c r="E4" t="n">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0152435302734375</v>
+        <v>0.0005929470062255859</v>
       </c>
       <c r="G4" t="n">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -588,11 +588,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bcsstm19</t>
+          <t>662_bus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>39536719.78976859</v>
+        <v>1422.994613068716</v>
       </c>
       <c r="E5" t="n">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02584052085876465</v>
+        <v>0.00128626823425293</v>
       </c>
       <c r="G5" t="n">
-        <v>817</v>
+        <v>662</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -625,11 +625,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>can_187</t>
+          <t>bcsstk02</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,20 +638,20 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8.397620475292884</v>
+        <v>18225.28861825787</v>
       </c>
       <c r="E6" t="n">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002664089202880859</v>
+        <v>0.001503705978393555</v>
       </c>
       <c r="G6" t="n">
-        <v>187</v>
+        <v>66</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -662,11 +662,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>can_445</t>
+          <t>bcsstk05</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,20 +675,20 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8.950130371605427</v>
+        <v>6197043.861659037</v>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002927541732788086</v>
+        <v>0.002492427825927734</v>
       </c>
       <c r="G7" t="n">
-        <v>445</v>
+        <v>153</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -699,11 +699,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ck400</t>
+          <t>bcsstk25</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -712,16 +712,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5.502385709075823</v>
+        <v>1060008038118777</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001064777374267578</v>
+        <v>2.916399002075195</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>15439</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -730,17 +730,17 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>symmetric</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ck104</t>
+          <t>bcsstk26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -749,16 +749,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5.502385709511155</v>
+        <v>158268836382.195</v>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0005304813385009766</v>
+        <v>0.1031303405761719</v>
       </c>
       <c r="G9" t="n">
-        <v>104</v>
+        <v>1922</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -767,17 +767,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>symmetric</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>dw2048</t>
+          <t>bcsstk17</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -786,16 +786,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9782280548675101</v>
+        <v>12960385068.16294</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2433764934539795</v>
+        <v>1.372621774673462</v>
       </c>
       <c r="G10" t="n">
-        <v>2048</v>
+        <v>10974</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -804,17 +804,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>symmetric</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>dwt_162</t>
+          <t>bcsstm09</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -823,20 +823,20 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8.131173666984399</v>
+        <v>0.000259020384904</v>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002860069274902344</v>
+        <v>0.002291202545166016</v>
       </c>
       <c r="G11" t="n">
-        <v>162</v>
+        <v>1083</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>pattern</t>
+          <t>real</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -847,11 +847,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dwt_198</t>
+          <t>can_292</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -860,16 +860,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>8.235967774192392</v>
+        <v>12.16372151100421</v>
       </c>
       <c r="E12" t="n">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004383563995361328</v>
+        <v>0.0007991790771484375</v>
       </c>
       <c r="G12" t="n">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>45</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002341032028198242</v>
+        <v>0.001912117004394531</v>
       </c>
       <c r="G13" t="n">
         <v>27</v>
@@ -921,11 +921,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>e05r0100</t>
+          <t>sherman4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -934,16 +934,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12.41717072759173</v>
+        <v>66.48767021742641</v>
       </c>
       <c r="E14" t="n">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0149235725402832</v>
+        <v>0.05750513076782227</v>
       </c>
       <c r="G14" t="n">
-        <v>236</v>
+        <v>1104</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -953,43 +953,6 @@
       <c r="I14" t="inlineStr">
         <is>
           <t>general</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>dwt_1242</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>9.38929622309684</v>
-      </c>
-      <c r="E15" t="n">
-        <v>105</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.06082487106323242</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1242</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>symmetric</t>
         </is>
       </c>
     </row>

--- a/resultados/tabelas_final/resultado_MP_MMQ.xlsx
+++ b/resultados/tabelas_final/resultado_MP_MMQ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,11 +847,11 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>can_292</t>
+          <t>can_229</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -860,16 +860,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12.16372151100421</v>
+        <v>8.696410230685041</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0007991790771484375</v>
+        <v>0.0008068084716796875</v>
       </c>
       <c r="G12" t="n">
-        <v>292</v>
+        <v>229</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -884,11 +884,11 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>fidap005</t>
+          <t>can_292</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -897,60 +897,97 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4359440.548861713</v>
+        <v>12.16372151100421</v>
       </c>
       <c r="E13" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001912117004394531</v>
+        <v>0.0007991790771484375</v>
       </c>
       <c r="G13" t="n">
-        <v>27</v>
+        <v>292</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>real</t>
+          <t>pattern</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>general</t>
+          <t>symmetric</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>fidap005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4359440.548861713</v>
+      </c>
+      <c r="E14" t="n">
+        <v>45</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.001912117004394531</v>
+      </c>
+      <c r="G14" t="n">
+        <v>27</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>general</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>sherman4</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>66.48767021742641</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E15" t="n">
         <v>100</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>0.05750513076782227</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>1104</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>general</t>
         </is>

--- a/resultados/tabelas_final/resultado_MP_MMQ.xlsx
+++ b/resultados/tabelas_final/resultado_MP_MMQ.xlsx
@@ -496,7 +496,7 @@
         <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0170900821685791</v>
+        <v>0.01144003868103027</v>
       </c>
       <c r="G2" t="n">
         <v>1138</v>
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001264095306396484</v>
+        <v>0.0006477832794189453</v>
       </c>
       <c r="G3" t="n">
         <v>685</v>
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005929470062255859</v>
+        <v>0.0005915164947509766</v>
       </c>
       <c r="G4" t="n">
         <v>494</v>
@@ -607,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00128626823425293</v>
+        <v>0.0006766319274902344</v>
       </c>
       <c r="G5" t="n">
         <v>662</v>
@@ -644,7 +644,7 @@
         <v>28</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001503705978393555</v>
+        <v>0.001025676727294922</v>
       </c>
       <c r="G6" t="n">
         <v>66</v>
@@ -681,7 +681,7 @@
         <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002492427825927734</v>
+        <v>0.002158164978027344</v>
       </c>
       <c r="G7" t="n">
         <v>153</v>
@@ -718,7 +718,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="n">
-        <v>2.916399002075195</v>
+        <v>2.953005075454712</v>
       </c>
       <c r="G8" t="n">
         <v>15439</v>
@@ -755,7 +755,7 @@
         <v>46</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1031303405761719</v>
+        <v>0.09817838668823242</v>
       </c>
       <c r="G9" t="n">
         <v>1922</v>
@@ -792,7 +792,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>1.372621774673462</v>
+        <v>1.322331666946411</v>
       </c>
       <c r="G10" t="n">
         <v>10974</v>
@@ -829,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002291202545166016</v>
+        <v>0.001966238021850586</v>
       </c>
       <c r="G11" t="n">
         <v>1083</v>
@@ -866,7 +866,7 @@
         <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0008068084716796875</v>
+        <v>0.0006289482116699219</v>
       </c>
       <c r="G12" t="n">
         <v>229</v>
@@ -903,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0007991790771484375</v>
+        <v>0.0006520748138427734</v>
       </c>
       <c r="G13" t="n">
         <v>292</v>
@@ -940,7 +940,7 @@
         <v>45</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001912117004394531</v>
+        <v>0.001431465148925781</v>
       </c>
       <c r="G14" t="n">
         <v>27</v>
@@ -977,7 +977,7 @@
         <v>100</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05750513076782227</v>
+        <v>0.0432136058807373</v>
       </c>
       <c r="G15" t="n">
         <v>1104</v>
